--- a/SFC_Country.xlsx
+++ b/SFC_Country.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangst\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangst\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DC1140B-37D4-4DF1-942D-2F62878AB10F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC3BD09-608E-49FC-89CF-BAE4BFF7A10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5484" yWindow="468" windowWidth="15996" windowHeight="11784" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>SFC Country Group</t>
   </si>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>BBG Country Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China - Hong Kong </t>
+  </si>
+  <si>
+    <t>China - Mainland</t>
+  </si>
+  <si>
+    <t>China - Macau</t>
+  </si>
+  <si>
+    <t>China - Taiwan</t>
   </si>
 </sst>
 </file>
@@ -608,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ADEE6C-730C-4A53-9570-3F6A1031B05A}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,7 +793,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -836,7 +848,7 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -869,7 +881,7 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -946,7 +958,7 @@
         <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1205,18 +1217,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1239,14 +1251,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F344AA7-7E24-4E49-AFAE-48D08A417130}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6C3F01-EAF3-493B-BE4C-0AE96D2DD289}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1261,4 +1265,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F344AA7-7E24-4E49-AFAE-48D08A417130}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SFC_Country.xlsx
+++ b/SFC_Country.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangst\git\risk_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC3BD09-608E-49FC-89CF-BAE4BFF7A10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CC0267-D967-47D7-9422-77BE96831D97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>SFC Country Group</t>
   </si>
@@ -258,6 +258,33 @@
   </si>
   <si>
     <t>China - Taiwan</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg </t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada </t>
   </si>
 </sst>
 </file>
@@ -618,20 +645,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ADEE6C-730C-4A53-9570-3F6A1031B05A}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -642,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -653,7 +680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -664,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -675,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -686,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -697,7 +724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -708,7 +735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -719,7 +746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -730,7 +757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -741,7 +768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -752,7 +779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -763,7 +790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -774,7 +801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -785,7 +812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -796,7 +823,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -807,7 +834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -818,7 +845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -829,7 +856,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -840,7 +867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -851,7 +878,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -862,7 +889,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -873,7 +900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -884,7 +911,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -895,7 +922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -906,7 +933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -917,7 +944,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -928,7 +955,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -939,7 +966,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -950,7 +977,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -961,7 +988,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -972,7 +999,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -983,7 +1010,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -992,6 +1019,39 @@
       </c>
       <c r="C33" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/SFC_Country.xlsx
+++ b/SFC_Country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CC0267-D967-47D7-9422-77BE96831D97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEB63FB-98BF-4A95-9C8C-083A5DD326BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>SFC Country Group</t>
   </si>
@@ -285,6 +285,15 @@
   </si>
   <si>
     <t xml:space="preserve">Canada </t>
+  </si>
+  <si>
+    <t>Middle East - others (2)</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Yemen</t>
   </si>
 </sst>
 </file>
@@ -645,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ADEE6C-730C-4A53-9570-3F6A1031B05A}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,12 +1063,38 @@
         <v>83</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C914DDD97F866468ED577DEA929E4D9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56ec5fe376fac40fd0cb1cab234de181">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="43d30129-465f-4aac-93a2-84e7515519f4" xmlns:ns4="ee224342-1562-4dba-aa18-deadffb6d682" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2e793717d1037e45edf9a57a995cfb4" ns3:_="" ns4:_="">
     <xsd:import namespace="43d30129-465f-4aac-93a2-84e7515519f4"/>
@@ -1276,36 +1311,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5803B407-0530-4D1C-905C-5E82E5FA2D03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F344AA7-7E24-4E49-AFAE-48D08A417130}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43d30129-465f-4aac-93a2-84e7515519f4"/>
-    <ds:schemaRef ds:uri="ee224342-1562-4dba-aa18-deadffb6d682"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1328,9 +1337,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F344AA7-7E24-4E49-AFAE-48D08A417130}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5803B407-0530-4D1C-905C-5E82E5FA2D03}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43d30129-465f-4aac-93a2-84e7515519f4"/>
+    <ds:schemaRef ds:uri="ee224342-1562-4dba-aa18-deadffb6d682"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SFC_Country.xlsx
+++ b/SFC_Country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEB63FB-98BF-4A95-9C8C-083A5DD326BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C76F0A4-E1F7-4273-A091-C3E20852B62A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>SFC Country Group</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>Yemen</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
   </si>
 </sst>
 </file>
@@ -654,17 +660,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ADEE6C-730C-4A53-9570-3F6A1031B05A}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,6 +1078,17 @@
       </c>
       <c r="C37" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1080,18 +1097,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1312,14 +1329,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F344AA7-7E24-4E49-AFAE-48D08A417130}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6C3F01-EAF3-493B-BE4C-0AE96D2DD289}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1332,6 +1341,14 @@
     <ds:schemaRef ds:uri="ee224342-1562-4dba-aa18-deadffb6d682"/>
     <ds:schemaRef ds:uri="43d30129-465f-4aac-93a2-84e7515519f4"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F344AA7-7E24-4E49-AFAE-48D08A417130}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SFC_Country.xlsx
+++ b/SFC_Country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangst\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C76F0A4-E1F7-4273-A091-C3E20852B62A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4282B58F-DAD9-4612-9439-6DB1108D7B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1CC8407C-9C85-4F80-BB08-BE5BF0A7339A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
   <si>
     <t>SFC Country Group</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>Pakistan</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Ireland</t>
   </si>
 </sst>
 </file>
@@ -660,20 +666,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ADEE6C-730C-4A53-9570-3F6A1031B05A}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -684,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -695,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -706,7 +712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -717,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -728,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -739,7 +745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -750,7 +756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -761,7 +767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -772,7 +778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -783,7 +789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -794,7 +800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -805,7 +811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -816,7 +822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -827,7 +833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -838,7 +844,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -849,7 +855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -860,7 +866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -871,7 +877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -882,7 +888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -893,7 +899,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -904,7 +910,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -915,7 +921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -926,7 +932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -937,7 +943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -948,7 +954,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -959,7 +965,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -970,7 +976,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -981,7 +987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -992,7 +998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1036,7 +1042,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -1089,6 +1095,17 @@
       </c>
       <c r="C38" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1097,18 +1114,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1329,6 +1346,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F344AA7-7E24-4E49-AFAE-48D08A417130}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6C3F01-EAF3-493B-BE4C-0AE96D2DD289}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1341,14 +1366,6 @@
     <ds:schemaRef ds:uri="ee224342-1562-4dba-aa18-deadffb6d682"/>
     <ds:schemaRef ds:uri="43d30129-465f-4aac-93a2-84e7515519f4"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F344AA7-7E24-4E49-AFAE-48D08A417130}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
